--- a/trunk/1. Project management/8. Weekly report and evaluation/Weekly Report/1. RE Weekly Report/AS_PM_WeeklyReport_Week5.xlsx
+++ b/trunk/1. Project management/8. Weekly report and evaluation/Weekly Report/1. RE Weekly Report/AS_PM_WeeklyReport_Week5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>Admission System Project</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Owner</t>
-  </si>
-  <si>
-    <t>Plan for next week</t>
   </si>
   <si>
     <t>Risk/ Action</t>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>On-going</t>
   </si>
   <si>
     <t>Team</t>
@@ -146,28 +140,7 @@
     <t>17/12/2013</t>
   </si>
   <si>
-    <t xml:space="preserve">Review and priority functional and non-functional </t>
-  </si>
-  <si>
-    <t>Update Architectural Drivers Specification and Product backlogdocuments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer requirement relevant documents to English version </t>
-  </si>
-  <si>
     <t>Yellow</t>
-  </si>
-  <si>
-    <t>Khang Huynh</t>
-  </si>
-  <si>
-    <t>Create product backlog document</t>
-  </si>
-  <si>
-    <t>Report and review documents relevant with mentor</t>
-  </si>
-  <si>
-    <t>Customer and Team</t>
   </si>
   <si>
     <t>Don't establish meetings with customer, so can't review architecture drivers specification</t>
@@ -199,6 +172,35 @@
   <si>
     <t>Recommend with mentor</t>
   </si>
+  <si>
+    <t>Plan for next week 6</t>
+  </si>
+  <si>
+    <t>Update Architectural Drivers Specification 
++ Entities
++ Use case diagram &amp; description
+Compose newsletter(1) / Catalog (2) / Hỏi đáp (3)</t>
+  </si>
+  <si>
+    <t>(1) Châu, Phú
+(2) Huy Nguyễn, Đạo
+(3) Huy Ngô, Khang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with customer #4
++ Review entities, use case diagram and description only
+</t>
+  </si>
+  <si>
+    <t>Update Entities and use case diagram and description:
+Compose newsletter(1) / Catalog (2) / Hỏi đáp (3)</t>
+  </si>
+  <si>
+    <t>Meeting with mentor #4 to review works done at requirement stages</t>
+  </si>
+  <si>
+    <t>19/12/2013</t>
+  </si>
 </sst>
 </file>
 
@@ -208,7 +210,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/d/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +259,19 @@
       <b/>
       <sz val="16"/>
       <color theme="4" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -981,7 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1093,10 +1108,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1127,6 +1156,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1145,6 +1180,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1154,10 +1195,16 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1190,55 +1237,26 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1249,32 +1267,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1578,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD48"/>
+  <dimension ref="A1:XFD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,16 +1631,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1621,16 +1655,16 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="69"/>
+      <c r="A3" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="81"/>
       <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1638,10 +1672,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="69"/>
+      <c r="A4" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="81"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1662,17 +1696,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
+      <c r="A6" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -1720,20 +1754,20 @@
       <c r="G9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="71"/>
+      <c r="I9" s="83"/>
     </row>
     <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="91" t="s">
-        <v>36</v>
+      <c r="B10" s="49" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="40">
         <v>41529</v>
@@ -1742,23 +1776,23 @@
         <v>41529</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="72"/>
-      <c r="I10" s="73"/>
+        <v>27</v>
+      </c>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
     </row>
     <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B11" s="91" t="s">
-        <v>37</v>
+      <c r="B11" s="49" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="40">
         <v>41529</v>
@@ -1767,23 +1801,23 @@
         <v>41529</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
+        <v>28</v>
+      </c>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
     </row>
     <row r="12" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A12" s="43">
         <v>3</v>
       </c>
-      <c r="B12" s="91" t="s">
-        <v>38</v>
+      <c r="B12" s="49" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="40">
         <v>41529</v>
@@ -1795,104 +1829,112 @@
         <v>24</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="73"/>
+        <v>29</v>
+      </c>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85">
+      <c r="A13" s="46">
         <v>4</v>
       </c>
-      <c r="B13" s="86" t="s">
-        <v>27</v>
+      <c r="B13" s="47" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="40">
+        <v>22</v>
+      </c>
+      <c r="D13" s="110">
         <v>41559</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88" t="s">
-        <v>39</v>
+      <c r="E13" s="111">
+        <v>41620</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>37</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="93"/>
+        <v>26</v>
+      </c>
+      <c r="H13" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="96"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="85">
+      <c r="A14" s="46">
         <v>5</v>
       </c>
-      <c r="B14" s="86" t="s">
-        <v>32</v>
+      <c r="B14" s="47" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="40">
         <v>41559</v>
       </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88" t="s">
-        <v>39</v>
+      <c r="E14" s="112">
+        <v>41620</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+        <v>23</v>
+      </c>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="85">
+      <c r="A15" s="46">
         <v>6</v>
       </c>
-      <c r="B15" s="86" t="s">
-        <v>33</v>
+      <c r="B15" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="40">
         <v>41620</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88" t="s">
-        <v>39</v>
+      <c r="E15" s="51">
+        <v>41620</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90"/>
+        <v>32</v>
+      </c>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
     </row>
     <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44">
         <v>7</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="50">
+        <v>41620</v>
+      </c>
+      <c r="E16" s="52">
+        <v>41620</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="92">
-        <v>41620</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="75"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="87"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
@@ -1907,7 +1949,7 @@
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1922,354 +1964,338 @@
       <c r="A19" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="76" t="s">
+      <c r="H19" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="77"/>
+      <c r="I19" s="89"/>
     </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>1</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="40">
-        <v>41529</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
+      <c r="B20" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="113">
+        <v>41620</v>
+      </c>
+      <c r="G20" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="59"/>
+      <c r="I20" s="60"/>
     </row>
-    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>2</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="40" t="s">
-        <v>41</v>
+      <c r="B21" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="114" t="s">
+        <v>39</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+        <v>23</v>
+      </c>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60"/>
     </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>3</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="40">
-        <v>41529</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
+      <c r="B22" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="59"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>4</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="40">
-        <v>41559</v>
+      <c r="B23" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="114" t="s">
+        <v>57</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
+        <v>23</v>
+      </c>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
-        <v>5</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="40">
-        <v>41559</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
+    <row r="24" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>6</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="40">
-        <v>41620</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
-        <v>7</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="40">
-        <v>41620</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
+    <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
-        <v>8</v>
-      </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="80"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="A28" s="15">
+        <v>1</v>
+      </c>
+      <c r="B28" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="102"/>
     </row>
-    <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
+        <v>2</v>
+      </c>
+      <c r="B29" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="102"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="15">
         <v>3</v>
       </c>
-      <c r="B30" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="68"/>
+      <c r="B30" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="102"/>
     </row>
-    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
-        <v>1</v>
-      </c>
-      <c r="B31" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="102"/>
+    <row r="31" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="16">
+        <v>4</v>
+      </c>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="15">
-        <v>2</v>
-      </c>
-      <c r="B32" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="102"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="15">
+    <row r="33" spans="1:16384" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="102"/>
-    </row>
-    <row r="34" spans="1:16384" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16">
-        <v>4</v>
-      </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="103"/>
+      <c r="B34" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="27" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="A35" s="34">
+        <v>1</v>
+      </c>
+      <c r="B35" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="31" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="36" spans="1:16384" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+    <row r="36" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="34">
+        <v>2</v>
+      </c>
+      <c r="B36" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="78"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="31" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="34">
         <v>3</v>
       </c>
-      <c r="B37" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="62" t="s">
+      <c r="B37" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:16384" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16384" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34">
-        <v>1</v>
-      </c>
-      <c r="B38" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:16384" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34">
-        <v>2</v>
-      </c>
-      <c r="B39" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="100"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="A39" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="75"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
@@ -51107,19 +51133,17 @@
       </c>
     </row>
     <row r="40" spans="1:16384" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="34">
-        <v>3</v>
-      </c>
-      <c r="B40" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="31"/>
+      <c r="A40" s="17">
+        <v>1</v>
+      </c>
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="76"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
@@ -67496,128 +67520,83 @@
       <c r="XFC40" s="11"/>
       <c r="XFD40" s="11"/>
     </row>
-    <row r="41" spans="1:16384" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+    <row r="41" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="17">
+        <v>2</v>
+      </c>
+      <c r="B41" s="65"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
+    <row r="42" spans="1:16384" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="18">
         <v>3</v>
       </c>
-      <c r="B42" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="65"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="94"/>
     </row>
-    <row r="43" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
-        <v>1</v>
-      </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="104"/>
+    <row r="43" spans="1:16384" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="17">
-        <v>2</v>
-      </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="35"/>
+    <row r="44" spans="1:16384" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:16384" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="18">
-        <v>3</v>
-      </c>
-      <c r="B45" s="105"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="107"/>
-    </row>
-    <row r="46" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+    <row r="45" spans="1:16384" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="B45:I45"/>
+  <mergeCells count="46">
+    <mergeCell ref="B42:I42"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
     <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:I31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
@@ -67626,30 +67605,28 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C16">

--- a/trunk/1. Project management/8. Weekly report and evaluation/Weekly Report/1. RE Weekly Report/AS_PM_WeeklyReport_Week5.xlsx
+++ b/trunk/1. Project management/8. Weekly report and evaluation/Weekly Report/1. RE Weekly Report/AS_PM_WeeklyReport_Week5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>Admission System Project</t>
   </si>
@@ -130,9 +130,6 @@
 Quality attribute for "Hỏi đáp" module</t>
   </si>
   <si>
-    <t>On-hold</t>
-  </si>
-  <si>
     <t>Don't establish meeting with customer because customer
 busy, going to tranfers meeting day to 13/12/2013 noon</t>
   </si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>19/12/2013</t>
+  </si>
+  <si>
+    <t>16/12/2013</t>
   </si>
 </sst>
 </file>
@@ -269,9 +269,7 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1126,8 +1124,81 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1135,26 +1206,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1198,15 +1266,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1219,96 +1278,35 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1614,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,16 +1629,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1655,10 +1653,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
         <v>1</v>
@@ -1672,10 +1670,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1696,17 +1694,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -1754,10 +1752,10 @@
       <c r="G9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="83"/>
+      <c r="I9" s="104"/>
     </row>
     <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -1781,8 +1779,8 @@
       <c r="G10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
@@ -1806,8 +1804,8 @@
       <c r="G11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="85"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A12" s="43">
@@ -1831,8 +1829,8 @@
       <c r="G12" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="85"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46">
@@ -1844,22 +1842,22 @@
       <c r="C13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="110">
+      <c r="D13" s="54">
         <v>41559</v>
       </c>
-      <c r="E13" s="111">
+      <c r="E13" s="113">
         <v>41620</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="96"/>
+      <c r="H13" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="61"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="46">
@@ -1874,7 +1872,7 @@
       <c r="D14" s="40">
         <v>41559</v>
       </c>
-      <c r="E14" s="112">
+      <c r="E14" s="114">
         <v>41620</v>
       </c>
       <c r="F14" s="48" t="s">
@@ -1883,8 +1881,8 @@
       <c r="G14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="46">
@@ -1908,8 +1906,8 @@
       <c r="G15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="63"/>
     </row>
     <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44">
@@ -1933,8 +1931,8 @@
       <c r="G16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="87"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
@@ -1949,7 +1947,7 @@
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1964,109 +1962,109 @@
       <c r="A19" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75"/>
       <c r="F19" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="88" t="s">
+      <c r="H19" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="89"/>
+      <c r="I19" s="86"/>
     </row>
     <row r="20" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>1</v>
       </c>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="55">
+        <v>41620</v>
+      </c>
+      <c r="G20" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="113">
-        <v>41620</v>
-      </c>
-      <c r="G20" s="109" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="109"/>
     </row>
     <row r="21" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>2</v>
       </c>
-      <c r="B21" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="114" t="s">
-        <v>39</v>
+      <c r="B21" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="56" t="s">
+        <v>38</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="109"/>
     </row>
     <row r="22" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>3</v>
       </c>
-      <c r="B22" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="109" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="59"/>
-      <c r="I22" s="60"/>
+      <c r="B22" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>4</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="56" t="s">
         <v>56</v>
-      </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="114" t="s">
-        <v>57</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="60"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="109"/>
     </row>
     <row r="24" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="111"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
@@ -2096,80 +2094,80 @@
       <c r="A27" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70" t="s">
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="80"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="101"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>1</v>
       </c>
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="102"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="72"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>2</v>
       </c>
-      <c r="B29" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="102"/>
+      <c r="B29" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="72"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>3</v>
       </c>
-      <c r="B30" s="100" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="102"/>
+      <c r="B30" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="72"/>
     </row>
     <row r="31" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>4</v>
       </c>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="77"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
@@ -2199,19 +2197,19 @@
       <c r="A34" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="70" t="s">
+      <c r="F34" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
       <c r="I34" s="27" t="s">
         <v>10</v>
       </c>
@@ -2220,17 +2218,19 @@
       <c r="A35" s="34">
         <v>1</v>
       </c>
-      <c r="B35" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
+      <c r="B35" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="32">
+        <v>41620</v>
+      </c>
+      <c r="F35" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
       <c r="I35" s="31" t="s">
         <v>23</v>
       </c>
@@ -2239,17 +2239,19 @@
       <c r="A36" s="34">
         <v>2</v>
       </c>
-      <c r="B36" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="78"/>
-      <c r="H36" s="79"/>
+      <c r="B36" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="65"/>
+      <c r="H36" s="66"/>
       <c r="I36" s="31" t="s">
         <v>23</v>
       </c>
@@ -2258,15 +2260,15 @@
       <c r="A37" s="34">
         <v>3</v>
       </c>
-      <c r="B37" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="79"/>
+      <c r="B37" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="65"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="33"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="99"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="69"/>
       <c r="I37" s="31"/>
     </row>
     <row r="38" spans="1:16384" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2286,16 +2288,16 @@
       <c r="A39" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="99"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
@@ -51136,14 +51138,14 @@
       <c r="A40" s="17">
         <v>1</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="76"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="100"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
@@ -67524,27 +67526,27 @@
       <c r="A41" s="17">
         <v>2</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
       <c r="I41" s="35"/>
     </row>
     <row r="42" spans="1:16384" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18">
         <v>3</v>
       </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="94"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="59"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -67581,6 +67583,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="B42:I42"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
@@ -67597,36 +67629,6 @@
     <mergeCell ref="E31:I31"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C16">
